--- a/Шаблон Госпаблики ВК.xlsx
+++ b/Шаблон Госпаблики ВК.xlsx
@@ -6,10 +6,10 @@
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="ТЗ" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Организации" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="За_весь_период" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Общий свод" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="ТЗ" sheetId="1" r:id="rId3" state="visible"/>
+    <sheet name="Организации" sheetId="2" r:id="rId4" state="visible"/>
+    <sheet name="За_весь_период" sheetId="3" r:id="rId5" state="visible"/>
+    <sheet name="Общий свод" sheetId="4" r:id="rId6" state="visible"/>
   </sheets>
   <calcPr/>
   <pivotCaches>
@@ -591,34 +591,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <fonts count="5">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18.000000"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="14.000000"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.000000"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
@@ -644,22 +644,22 @@
       <right style="none"/>
       <top style="none"/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -755,52 +755,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1331,7 +1331,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -1534,6 +1534,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -2170,37 +2171,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="8" width="70.7109375"/>
-    <col customWidth="1" min="2" max="2" style="8" width="33.00390625"/>
-    <col customWidth="1" min="3" max="3" style="8" width="38.140625"/>
-    <col customWidth="1" min="4" max="4" style="8" width="20.7109375"/>
-    <col customWidth="1" min="5" max="5" style="8" width="14.00390625"/>
-    <col customWidth="1" min="6" max="6" style="8" width="15.57421875"/>
-    <col customWidth="1" min="7" max="7" style="8" width="14.7109375"/>
-    <col customWidth="1" min="8" max="8" style="8" width="15.57421875"/>
-    <col customWidth="1" min="9" max="9" style="8" width="14.57421875"/>
-    <col customWidth="1" min="10" max="10" style="8" width="15.00390625"/>
-    <col customWidth="1" min="11" max="11" style="8" width="14.57421875"/>
-    <col customWidth="1" min="12" max="12" style="8" width="12.8515625"/>
-    <col customWidth="1" min="13" max="13" style="8" width="12.7109375"/>
-    <col customWidth="1" min="14" max="14" style="8" width="18.28125"/>
-    <col customWidth="1" min="15" max="15" style="8" width="18.140625"/>
-    <col customWidth="1" min="16" max="16" style="8" width="17.7109375"/>
-    <col customWidth="1" min="17" max="17" style="8" width="17.57421875"/>
-    <col customWidth="1" min="18" max="18" style="8" width="19.140625"/>
-    <col customWidth="1" min="19" max="19" style="8" width="17.8515625"/>
-    <col customWidth="1" min="20" max="20" style="8" width="17.421875"/>
-    <col customWidth="1" min="21" max="21" style="8" width="17.00390625"/>
-    <col customWidth="1" min="22" max="22" style="8" width="16.7109375"/>
-    <col customWidth="1" min="23" max="23" style="8" width="16.140625"/>
-    <col customWidth="1" min="24" max="24" style="8" width="15.8515625"/>
-    <col customWidth="1" min="25" max="26" style="8" width="15.00390625"/>
-    <col customWidth="1" min="27" max="27" style="8" width="15.140625"/>
-    <col customWidth="1" min="28" max="28" style="8" width="17.28125"/>
-    <col min="29" max="16384" style="8" width="9.140625"/>
+    <col customWidth="true" max="1" min="1" style="8" width="70.7109375"/>
+    <col customWidth="true" max="2" min="2" style="8" width="33.00390625"/>
+    <col customWidth="true" max="3" min="3" style="8" width="38.140625"/>
+    <col customWidth="true" max="4" min="4" style="8" width="20.7109375"/>
+    <col customWidth="true" max="5" min="5" style="8" width="14.00390625"/>
+    <col customWidth="true" max="6" min="6" style="8" width="15.57421875"/>
+    <col customWidth="true" max="7" min="7" style="8" width="14.7109375"/>
+    <col customWidth="true" max="8" min="8" style="8" width="15.57421875"/>
+    <col customWidth="true" max="9" min="9" style="8" width="14.57421875"/>
+    <col customWidth="true" max="10" min="10" style="8" width="15.00390625"/>
+    <col customWidth="true" max="11" min="11" style="8" width="14.57421875"/>
+    <col customWidth="true" max="12" min="12" style="8" width="12.8515625"/>
+    <col customWidth="true" max="13" min="13" style="8" width="12.7109375"/>
+    <col customWidth="true" max="14" min="14" style="8" width="18.28125"/>
+    <col customWidth="true" max="15" min="15" style="8" width="18.140625"/>
+    <col customWidth="true" max="16" min="16" style="8" width="17.7109375"/>
+    <col customWidth="true" max="17" min="17" style="8" width="17.57421875"/>
+    <col customWidth="true" max="18" min="18" style="8" width="19.140625"/>
+    <col customWidth="true" max="19" min="19" style="8" width="17.8515625"/>
+    <col customWidth="true" max="20" min="20" style="8" width="17.421875"/>
+    <col customWidth="true" max="21" min="21" style="8" width="17.00390625"/>
+    <col customWidth="true" max="22" min="22" style="8" width="16.7109375"/>
+    <col customWidth="true" max="23" min="23" style="8" width="16.140625"/>
+    <col customWidth="true" max="24" min="24" style="8" width="15.8515625"/>
+    <col customWidth="true" max="26" min="25" style="8" width="15.00390625"/>
+    <col customWidth="true" max="27" min="27" style="8" width="15.140625"/>
+    <col customWidth="true" max="28" min="28" style="8" width="17.28125"/>
+    <col max="16384" min="29" style="8" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="108" customHeight="1">
+    <row r="1" ht="108" customHeight="true">
       <c r="A1" s="9" t="s">
         <v>144</v>
       </c>
@@ -2364,16 +2365,16 @@
         <v>1367</v>
       </c>
       <c r="Y2" s="8">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="Z2" s="8">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="AA2" s="8">
         <v>816</v>
       </c>
       <c r="AB2" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" ht="16.5">
@@ -2780,7 +2781,7 @@
         <v>4418</v>
       </c>
       <c r="AA7" s="8">
-        <v>15423</v>
+        <v>15424</v>
       </c>
       <c r="AB7" s="8">
         <v>723</v>
@@ -6576,11 +6577,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <printOptions/>
+  <pageMargins left="0.7007874015748032" right="0.7007874015748032" top="0.7519685039370079" bottom="0.7519685039370079" header="0.3" footer="0.3"/>
+  <pageSetup cellComments="none" copies="1" errors="displayed" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" usePrinterDefaults="true" verticalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/Шаблон Госпаблики ВК.xlsx
+++ b/Шаблон Госпаблики ВК.xlsx
@@ -40,6 +40,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Ссылка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАУЗ  "ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 1 " ГОРОДА ОРЕНБУРГА</t>
+  </si>
+  <si>
+    <t>https://vk.com/gkb1orenburg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГБУЗ "КУРМАНАЕВСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
@@ -460,19 +472,7 @@
     <t xml:space="preserve">Сводная таблица Excel  по образцу</t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>Ссылка</t>
-  </si>
-  <si>
     <t xml:space="preserve">Кол-во месяцев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГАУЗ  "ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 1 " ГОРОДА ОРЕНБУРГА</t>
-  </si>
-  <si>
-    <t>https://vk.com/gkb1orenburg</t>
   </si>
 </sst>
 </file>
@@ -482,6 +482,12 @@
   <fonts count="4">
     <font>
       <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -496,12 +502,6 @@
       <sz val="18.000000"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="14.000000"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -551,6 +551,9 @@
   <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
@@ -563,14 +566,11 @@
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,538 +1121,554 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" ht="56.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="16.5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="16.5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="16.5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="16.5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="16.5">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="16.5">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" ht="16.5">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="16.5">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="16.5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="16.5">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" ht="16.5">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" ht="16.5">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" ht="16.5">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" ht="16.5">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" ht="16.5">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="16.5">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" ht="16.5">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" ht="16.5">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" ht="16.5">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" ht="16.5">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="16.5">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" ht="16.5">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" ht="16.5">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" ht="16.5">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="16.5">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" ht="16.5">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" ht="16.5">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" ht="16.5">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" ht="16.5">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" ht="16.5">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" ht="16.5">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" ht="16.5">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" ht="16.5">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" ht="16.5">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" ht="16.5">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" ht="16.5">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" ht="16.5">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" ht="16.5">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" ht="16.5">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" ht="16.5">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" ht="16.5">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" ht="16.5">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" ht="16.5">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" ht="16.5">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" ht="16.5">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" ht="16.5">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" ht="16.5">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" ht="16.5">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" ht="16.5">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" ht="16.5">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" ht="16.5">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53" ht="16.5">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" ht="16.5">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="55" ht="16.5">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" ht="16.5">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="57" ht="16.5">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" ht="16.5">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="59" ht="16.5">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="60" ht="16.5">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="61" ht="16.5">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62" ht="16.5">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="63" ht="16.5">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="64" ht="16.5">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1672,45 +1688,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="3" width="64.28125"/>
-    <col customWidth="1" min="2" max="2" style="3" width="107.8515625"/>
-    <col min="3" max="16384" style="3" width="9.140625"/>
+    <col customWidth="1" min="1" max="1" style="4" width="64.28125"/>
+    <col customWidth="1" min="2" max="2" style="4" width="107.8515625"/>
+    <col min="3" max="16384" style="4" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" ht="21.75">
-      <c r="A2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>133</v>
+      <c r="A2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" ht="43.5">
-      <c r="A3" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>135</v>
+      <c r="A3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" ht="43.5">
-      <c r="A4" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>137</v>
+      <c r="A4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" ht="21.75">
-      <c r="A5" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>139</v>
+      <c r="A5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1725,7 +1741,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1737,107 +1753,252 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75">
-      <c r="A1" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>141</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" ht="16.5">
-      <c r="A2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>144</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="16.5">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" ht="16.5">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5"/>
-    <row r="6" ht="16.5"/>
-    <row r="7" ht="16.5"/>
-    <row r="8" ht="16.5"/>
-    <row r="9" ht="16.5"/>
-    <row r="10" ht="18.75"/>
-    <row r="11" ht="16.5"/>
-    <row r="12" ht="16.5"/>
-    <row r="13" ht="16.5"/>
-    <row r="14" ht="16.5"/>
-    <row r="15" ht="16.5"/>
-    <row r="16" ht="16.5"/>
-    <row r="17" ht="16.5"/>
-    <row r="18" ht="16.5"/>
-    <row r="19" ht="16.5"/>
-    <row r="20" ht="16.5"/>
-    <row r="21" ht="16.5"/>
-    <row r="22" ht="16.5"/>
-    <row r="23" ht="16.5"/>
-    <row r="24" ht="16.5"/>
-    <row r="25" ht="16.5"/>
-    <row r="26" ht="16.5"/>
-    <row r="27" ht="16.5"/>
-    <row r="28" ht="16.5"/>
-    <row r="29" ht="16.5"/>
-    <row r="30" ht="16.5"/>
-    <row r="31" ht="16.5"/>
-    <row r="32" ht="16.5"/>
-    <row r="33" ht="16.5"/>
-    <row r="34" ht="16.5"/>
-    <row r="35" ht="16.5"/>
-    <row r="36" ht="16.5"/>
-    <row r="37" ht="16.5"/>
-    <row r="38" ht="16.5"/>
-    <row r="39" ht="16.5"/>
-    <row r="40" ht="16.5"/>
-    <row r="41" ht="16.5"/>
-    <row r="42" ht="16.5"/>
-    <row r="43" ht="16.5"/>
-    <row r="44" ht="16.5"/>
-    <row r="45" ht="16.5"/>
-    <row r="46" ht="16.5"/>
-    <row r="47" ht="16.5"/>
-    <row r="48" ht="16.5"/>
-    <row r="49" ht="16.5"/>
-    <row r="50" ht="16.5"/>
-    <row r="51" ht="16.5"/>
-    <row r="52" ht="16.5"/>
-    <row r="53" ht="16.5"/>
-    <row r="54" ht="16.5"/>
-    <row r="55" ht="16.5"/>
-    <row r="56" ht="16.5"/>
-    <row r="57" ht="16.5"/>
-    <row r="58" ht="16.5"/>
-    <row r="59" ht="16.5"/>
-    <row r="60" ht="16.5"/>
-    <row r="61" ht="16.5"/>
-    <row r="62" ht="16.5"/>
-    <row r="63" ht="16.5"/>
-    <row r="64" ht="16.5"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" ht="16.5">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" ht="16.5">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" ht="16.5">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" ht="16.5">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" ht="16.5">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" ht="16.5">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" ht="16.5">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" ht="16.5">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" ht="16.5">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" ht="16.5">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" ht="16.5">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" ht="16.5">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" ht="16.5">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" ht="16.5">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" ht="16.5">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" ht="16.5">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" ht="16.5">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" ht="16.5">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" ht="16.5">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" ht="16.5">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" ht="16.5">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" ht="16.5">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" ht="16.5">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" ht="16.5">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" ht="16.5">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" ht="16.5">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" ht="16.5">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" ht="16.5">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" ht="16.5">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" ht="16.5">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" ht="16.5">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" ht="16.5">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" ht="16.5">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" ht="16.5">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" ht="16.5">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" ht="16.5">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" ht="16.5">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" ht="16.5">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" ht="16.5">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" ht="16.5">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" ht="16.5">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" ht="16.5">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" ht="16.5">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" ht="16.5">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" ht="16.5">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" ht="16.5">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" ht="16.5">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" ht="16.5">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" ht="16.5">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" ht="16.5">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" ht="16.5">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" ht="16.5">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" ht="16.5">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" ht="16.5">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" ht="16.5">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" ht="16.5">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" ht="16.5">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" ht="16.5">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" ht="16.5">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" ht="16.5">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/Шаблон Госпаблики ВК.xlsx
+++ b/Шаблон Госпаблики ВК.xlsx
@@ -1,44 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Miac-mo-parser\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A8EE5B-BAFF-4AAD-BB94-4608CE04DADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ТЗ" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Организации" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="ТЗ" sheetId="2" r:id="rId2"/>
+    <sheet name="Организации" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_Дата_публикации">#N/A</definedName>
     <definedName name="Slicer_Дата_публикации1">#N/A</definedName>
     <definedName name="Slicer_Дата_публикации2">#N/A</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{68DF287B-22E7-4091-B44A-FA22151D25B6}" name="Excel 13-10pars_base" type="100" minRefreshableVersion="5" refreshedVersion="6"/>
-  <connection id="2" xr16:uid="{A525E95C-4B52-401F-AC54-470AA13FCD8C}" name="Excel 13-10pars_base1" type="100" minRefreshableVersion="5" refreshedVersion="6"/>
-  <connection id="3" xr16:uid="{2FD16CFC-C101-44B8-B0FC-4E06D1615870}" name="Excel 13-10pars_base2" type="100" minRefreshableVersion="5" refreshedVersion="6"/>
-  <connection id="4" xr16:uid="{5C036756-79E9-4520-ACE0-A685526395E4}" name="Excel Справочник МО" type="100" minRefreshableVersion="5" refreshedVersion="6"/>
-  <connection id="5" xr16:uid="{464EBA7C-1382-4722-BCD7-7C85B7E3F44B}" name="Excel Справочник МО1" type="100" minRefreshableVersion="5" refreshedVersion="6"/>
-  <connection id="6" xr16:uid="{974C6E59-6FA6-4936-8844-43D4C4070922}" name="Excel Справочник МО2" type="100" minRefreshableVersion="5" refreshedVersion="6"/>
-  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="ThisWorkbookDataModel" description="Модель данных" type="5" minRefreshableVersion="5" refreshedVersion="6">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="ThisWorkbookDataModel" description="Модель данных" type="5" refreshedVersion="6" minRefreshableVersion="5">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
-    <olapPr rowDrillCount="1000" sendLocale="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
-  <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Подключение" type="104" minRefreshableVersion="5" refreshedVersion="6"/>
-  <connection id="9" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Подключение1" type="104" minRefreshableVersion="5" refreshedVersion="6"/>
-  <connection id="10" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Подключение2" type="104" minRefreshableVersion="5" refreshedVersion="6"/>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Подключение" type="104" refreshedVersion="6" minRefreshableVersion="5"/>
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Подключение1" type="104" refreshedVersion="6" minRefreshableVersion="5"/>
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Подключение2" type="104" refreshedVersion="6" minRefreshableVersion="5"/>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="145">
   <si>
     <t>Наименование</t>
   </si>
@@ -46,460 +47,460 @@
     <t>Ссылка</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ  "ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 1 " ГОРОДА ОРЕНБУРГА</t>
+    <t>ГАУЗ  "ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 1 " ГОРОДА ОРЕНБУРГА</t>
   </si>
   <si>
     <t>https://vk.com/gkb1orenburg</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "КУРМАНАЕВСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ "КУРМАНАЕВСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/kurmrb</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ "СТОМАТОЛОГИЧЕСКАЯ ПОЛИКЛИНИКА " ГОРОДА НОВОТРОИЦКА</t>
+    <t>ГАУЗ "СТОМАТОЛОГИЧЕСКАЯ ПОЛИКЛИНИКА " ГОРОДА НОВОТРОИЦКА</t>
   </si>
   <si>
     <t>https://vk.com/public219628189</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ  "БОЛЬНИЦА СКОРОЙ МЕДИЦИНСКОЙ ПОМОЩИ " ГОРОДА НОВОТРОИЦКА</t>
+    <t>ГАУЗ  "БОЛЬНИЦА СКОРОЙ МЕДИЦИНСКОЙ ПОМОЩИ " ГОРОДА НОВОТРОИЦКА</t>
   </si>
   <si>
     <t>https://vk.com/public217210667</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ  "ГОРОДСКАЯ БОЛЬНИЦА " ГОРОДА ГАЯ</t>
+    <t>ГБУЗ  "ГОРОДСКАЯ БОЛЬНИЦА " ГОРОДА ГАЯ</t>
   </si>
   <si>
     <t>https://vk.com/public216667978</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ "ОРСКИЙ МЕЖМУНИЦИПАЛЬНЫЙ ПЕРИНАТАЛЬНЫЙ ЦЕНТР "</t>
+    <t>ГАУЗ "ОРСКИЙ МЕЖМУНИЦИПАЛЬНЫЙ ПЕРИНАТАЛЬНЫЙ ЦЕНТР "</t>
   </si>
   <si>
     <t>https://vk.com/ompc_orsk</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ  "АЛЕКСАНДРОВСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ  "АЛЕКСАНДРОВСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/club217837210</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ  "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА ИМ. В. И. ВОЙНОВА "</t>
+    <t>ГАУЗ  "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА ИМ. В. И. ВОЙНОВА "</t>
   </si>
   <si>
     <t>https://vk.com/gauz_ookb_voinova</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ "СОЛЬ-ИЛЕЦКАЯ МЕЖРАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГАУЗ "СОЛЬ-ИЛЕЦКАЯ МЕЖРАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/gauz_sol</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ  "ГРАЧЕВСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ  "ГРАЧЕВСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/club215913862</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ СТАНЦИЯ СКОРОЙ МЕДИЦИНСКОЙ ПОМОЩИ "</t>
+    <t>ГБУЗ "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ СТАНЦИЯ СКОРОЙ МЕДИЦИНСКОЙ ПОМОЩИ "</t>
   </si>
   <si>
     <t>https://vk.com/ookssmp</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "ГОРОДСКАЯ БОЛЬНИЦА " ГОРОДА БУГУРУСЛАНА</t>
+    <t>ГБУЗ "ГОРОДСКАЯ БОЛЬНИЦА " ГОРОДА БУГУРУСЛАНА</t>
   </si>
   <si>
     <t>https://vk.com/gb_bug</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ  "НОВООРСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГАУЗ  "НОВООРСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/club219643062</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ "ОБЛАСТНОЙ ЦЕНТР МЕДИЦИНСКОЙ РЕАБИЛИТАЦИИ "</t>
+    <t>ГАУЗ "ОБЛАСТНОЙ ЦЕНТР МЕДИЦИНСКОЙ РЕАБИЛИТАЦИИ "</t>
   </si>
   <si>
     <t>https://vk.com/club149435686</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ  "ВОСТОЧНАЯ ТЕРРИТОРИАЛЬНАЯ МЕЖРАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ  "ВОСТОЧНАЯ ТЕРРИТОРИАЛЬНАЯ МЕЖРАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/vtmb56</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ "ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА ИМ.Н.И. ПИРОГОВА " ГОРОДА ОРЕНБУРГА</t>
+    <t>ГАУЗ "ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА ИМ.Н.И. ПИРОГОВА " ГОРОДА ОРЕНБУРГА</t>
   </si>
   <si>
     <t>https://vk.com/pirogova56</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ ИНФЕКЦИОННАЯ БОЛЬНИЦА "</t>
+    <t>ГАУЗ "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ ИНФЕКЦИОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/ookib</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ  "СТОМАТОЛОГИЧЕСКАЯ ПОЛИКЛИНИКА " ГОРОДА ОРСКА</t>
+    <t>ГАУЗ  "СТОМАТОЛОГИЧЕСКАЯ ПОЛИКЛИНИКА " ГОРОДА ОРСКА</t>
   </si>
   <si>
     <t>https://vk.com/public214858178</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ  "ДЕТСКАЯ ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА " ГОРОДА ОРЕНБУРГА</t>
+    <t>ГАУЗ  "ДЕТСКАЯ ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА " ГОРОДА ОРЕНБУРГА</t>
   </si>
   <si>
     <t>https://vk.com/dgkb56</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "ГОРОДСКАЯ БОЛЬНИЦА " ГОРОДА КУВАНДЫКА</t>
+    <t>ГБУЗ "ГОРОДСКАЯ БОЛЬНИЦА " ГОРОДА КУВАНДЫКА</t>
   </si>
   <si>
     <t>https://vk.com/gbkuv</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ  "ШАРЛЫКСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ  "ШАРЛЫКСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/club214767450</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ "БУЗУЛУКСКАЯ БОЛЬНИЦА СКОРОЙ МЕДИЦИНСКОЙ ПОМОЩИ "</t>
+    <t>ГАУЗ "БУЗУЛУКСКАЯ БОЛЬНИЦА СКОРОЙ МЕДИЦИНСКОЙ ПОМОЩИ "</t>
   </si>
   <si>
     <t>https://vk.com/buzuluk_klinika</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "АБДУЛИНСКАЯ МЕЖРАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ "АБДУЛИНСКАЯ МЕЖРАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/club204964821</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ  "ОРЕНБУРГСКИЙ ОБЛАСТНОЙ КЛИНИЧЕСКИЙ ПРОТИВОТУБЕРКУЛЕЗНЫЙ ДИСПАНСЕР "</t>
+    <t>ГБУЗ  "ОРЕНБУРГСКИЙ ОБЛАСТНОЙ КЛИНИЧЕСКИЙ ПРОТИВОТУБЕРКУЛЕЗНЫЙ ДИСПАНСЕР "</t>
   </si>
   <si>
     <t>https://vk.com/club88368387</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ  "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 2 "</t>
+    <t>ГАУЗ  "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 2 "</t>
   </si>
   <si>
     <t>https://vk.com/ookb2oren</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ  "ОРЕНБУРГСКИЙ ОБЛАСТНОЙ КЛИНИЧЕСКИЙ ПСИХОНЕВРОЛОГИЧЕСКИЙ ГОСПИТАЛЬ ВЕТЕРАНОВ ВОЙН "</t>
+    <t>ГБУЗ  "ОРЕНБУРГСКИЙ ОБЛАСТНОЙ КЛИНИЧЕСКИЙ ПСИХОНЕВРОЛОГИЧЕСКИЙ ГОСПИТАЛЬ ВЕТЕРАНОВ ВОЙН "</t>
   </si>
   <si>
     <t>https://vk.com/public211859567</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ "ОБЛАСТНОЙ АПТЕЧНЫЙ СКЛАД "</t>
+    <t>ГАУЗ "ОБЛАСТНОЙ АПТЕЧНЫЙ СКЛАД "</t>
   </si>
   <si>
     <t>https://vk.com/gosapteka56</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ  "ОРСКИЙ ОНКОЛОГИЧЕСКИЙ ДИСПАНСЕР "</t>
+    <t>ГБУЗ  "ОРСКИЙ ОНКОЛОГИЧЕСКИЙ ДИСПАНСЕР "</t>
   </si>
   <si>
     <t>https://vk.com/onco_orsk</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "АСЕКЕЕВСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ "АСЕКЕЕВСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/public217308177</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "САРАКТАШСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ "САРАКТАШСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/sarakrb</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ  "ГОРОДСКАЯ БОЛЬНИЦА " ГОРОДА МЕДНОГОРСКА</t>
+    <t>ГБУЗ  "ГОРОДСКАЯ БОЛЬНИЦА " ГОРОДА МЕДНОГОРСКА</t>
   </si>
   <si>
     <t>https://vk.com/mednogorsk_gb56</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ  "ОБЛАСТНАЯ ДЕТСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА "</t>
+    <t>ГАУЗ  "ОБЛАСТНАЯ ДЕТСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/odkb56</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ БОЛЬНИЦА № 3 "</t>
+    <t>ГАУЗ "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ БОЛЬНИЦА № 3 "</t>
   </si>
   <si>
     <t>https://vk.com/public221572666</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ  "СТОМАТОЛОГИЧЕСКАЯ ПОЛИКЛИНИКА " ГОРОДА БУГУРУСЛАНА</t>
+    <t>ГАУЗ  "СТОМАТОЛОГИЧЕСКАЯ ПОЛИКЛИНИКА " ГОРОДА БУГУРУСЛАНА</t>
   </si>
   <si>
     <t>https://vk.com/club210980805</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "ТОЦКАЯРАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ "ТОЦКАЯРАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/public215934425</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ  "КВАРКЕНСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГАУЗ  "КВАРКЕНСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/public209199273</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "ПЕРЕВОЛОЦКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ "ПЕРЕВОЛОЦКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/perev_gbuz</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ  "ПЕРВОМАЙСКАЯРАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ  "ПЕРВОМАЙСКАЯРАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/pervomayskayatsrb</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ  "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ СТАНЦИЯ ПЕРЕЛИВАНИЯ КРОВИ "</t>
+    <t>ГБУЗ  "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ СТАНЦИЯ ПЕРЕЛИВАНИЯ КРОВИ "</t>
   </si>
   <si>
     <t>https://vk.com/orenblood</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ  "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ СТОМАТОЛОГИЧЕСКАЯ ПОЛИКЛИНИКА "</t>
+    <t>ГАУЗ  "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ СТОМАТОЛОГИЧЕСКАЯ ПОЛИКЛИНИКА "</t>
   </si>
   <si>
     <t>https://vk.com/ooksp</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "ИЛЕКСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ "ИЛЕКСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/club217121043</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ  "ОБЛАСТНАЯ ПСИХИАТРИЧЕСКАЯ БОЛЬНИЦА № 4 "</t>
+    <t>ГАУЗ  "ОБЛАСТНАЯ ПСИХИАТРИЧЕСКАЯ БОЛЬНИЦА № 4 "</t>
   </si>
   <si>
     <t>https://vk.com/club219817404</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ ПСИХИАТРИЧЕСКАЯ БОЛЬНИЦА № 1 "</t>
+    <t>ГБУЗ "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ ПСИХИАТРИЧЕСКАЯ БОЛЬНИЦА № 1 "</t>
   </si>
   <si>
     <t>https://vk.com/public217228272</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "СОРОЧИНСКАЯ МЕЖРАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ "СОРОЧИНСКАЯ МЕЖРАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/club216958241</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ ПСИХИАТРИЧЕСКАЯ БОЛЬНИЦА № 2 "</t>
+    <t>ГБУЗ "ОРЕНБУРГСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ ПСИХИАТРИЧЕСКАЯ БОЛЬНИЦА № 2 "</t>
   </si>
   <si>
     <t>https://vk.com/public213617509</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ "ОРЕНБУРГСКИЙ ОБЛАСТНОЙ КЛИНИЧЕСКИЙ КОЖНО-ВЕНЕРОЛОГИЧЕСКИЙ ДИСПАНСЕР "</t>
+    <t>ГАУЗ "ОРЕНБУРГСКИЙ ОБЛАСТНОЙ КЛИНИЧЕСКИЙ КОЖНО-ВЕНЕРОЛОГИЧЕСКИЙ ДИСПАНСЕР "</t>
   </si>
   <si>
     <t>https://vk.com/okvd56</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ  "ОРЕНБУРГСКИЙ КЛИНИЧЕСКИЙ ПЕРИНАТАЛЬНЫЙ ЦЕНТР "</t>
+    <t>ГАУЗ  "ОРЕНБУРГСКИЙ КЛИНИЧЕСКИЙ ПЕРИНАТАЛЬНЫЙ ЦЕНТР "</t>
   </si>
   <si>
     <t>https://vk.com/public211794664</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ  "ДЕТСКАЯ ГОРОДСКАЯ БОЛЬНИЦА " ГОРОДА НОВОТРОИЦКА</t>
+    <t>ГАУЗ  "ДЕТСКАЯ ГОРОДСКАЯ БОЛЬНИЦА " ГОРОДА НОВОТРОИЦКА</t>
   </si>
   <si>
     <t>https://vk.com/dgbn56</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "БЮРО СУДЕБНО-МЕДИЦИНСКОЙ ЭКСПЕРТИЗЫ "</t>
+    <t>ГБУЗ "БЮРО СУДЕБНО-МЕДИЦИНСКОЙ ЭКСПЕРТИЗЫ "</t>
   </si>
   <si>
     <t>https://vk.com/orensme</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ  "ДЕТСКАЯ ГОРОДСКАЯ БОЛЬНИЦА " ГОРОДА ОРСКА</t>
+    <t>ГАУЗ  "ДЕТСКАЯ ГОРОДСКАЯ БОЛЬНИЦА " ГОРОДА ОРСКА</t>
   </si>
   <si>
     <t>https://vk.com/orskgb5</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ  "БЕЛЯЕВСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ  "БЕЛЯЕВСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/public216687456</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ "ОРЕНБУРГСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГАУЗ "ОРЕНБУРГСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/public208051107</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ  "ГОРОДСКАЯ БОЛЬНИЦА " ГОРОДА ОРСКА</t>
+    <t>ГАУЗ  "ГОРОДСКАЯ БОЛЬНИЦА " ГОРОДА ОРСКА</t>
   </si>
   <si>
     <t>https://vk.com/orskgb</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "АДАМОВСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ "АДАМОВСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/adamovkarb</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ  "ОРЕНБУРГСКИЙ ОБЛАСНОЙ КЛИНИЧЕСКИЙ СПЕЦИАЛИЗИРОВАННЫЙ ЦЕНТР ТРАВМАТОЛОГИИ И ОРТОПЕДИИ "</t>
+    <t>ГАУЗ  "ОРЕНБУРГСКИЙ ОБЛАСНОЙ КЛИНИЧЕСКИЙ СПЕЦИАЛИЗИРОВАННЫЙ ЦЕНТР ТРАВМАТОЛОГИИ И ОРТОПЕДИИ "</t>
   </si>
   <si>
     <t>https://vk.com/travma56</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "ОБЛАСТНАЯ ПСИХИАТРИЧЕСКАЯ БОЛЬНИЦА № 3 "</t>
+    <t>ГБУЗ "ОБЛАСТНАЯ ПСИХИАТРИЧЕСКАЯ БОЛЬНИЦА № 3 "</t>
   </si>
   <si>
     <t>https://vk.com/gbuzopb3</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ "ОРЕНБУРГСКИЙ ОБЛАСТНОЙ КЛИНИЧЕСКИЙ НАРКОЛОГИЧЕСКИЙ ДИСПАНСЕР "</t>
+    <t>ГАУЗ "ОРЕНБУРГСКИЙ ОБЛАСТНОЙ КЛИНИЧЕСКИЙ НАРКОЛОГИЧЕСКИЙ ДИСПАНСЕР "</t>
   </si>
   <si>
     <t>https://vk.com/public213693286</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "ТАШЛИНСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ "ТАШЛИНСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/crbtashla</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "МЕДИЦИНСКИЙ ИНФОРМАЦИОННО-АНАЛИТИЧЕСКИЙ ЦЕНТР "</t>
+    <t>ГБУЗ "МЕДИЦИНСКИЙ ИНФОРМАЦИОННО-АНАЛИТИЧЕСКИЙ ЦЕНТР "</t>
   </si>
   <si>
     <t>https://vk.com/club216686381</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ  "НОВОСЕРГИЕВСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ  "НОВОСЕРГИЕВСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/public217246379</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАУЗ "ОРЕНБУРГСКИЙ ОБЛАСТНОЙ КЛИНИЧЕСКИЙ ОНКОЛОГИЧЕСКИЙ ДИСПАНСЕР "</t>
+    <t>ГАУЗ "ОРЕНБУРГСКИЙ ОБЛАСТНОЙ КЛИНИЧЕСКИЙ ОНКОЛОГИЧЕСКИЙ ДИСПАНСЕР "</t>
   </si>
   <si>
     <t>https://vk.com/oren.onco56</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "САКМАРСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ "САКМАРСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/sakmararb</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ  "ТЮЛЬГАНСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ  "ТЮЛЬГАНСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/tulrb</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ  "ОКТЯБРЬСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ  "ОКТЯБРЬСКАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/oktrb56</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАПОУ  "ОРЕНБУРГСКИЙ ОБЛАСТНОЙ МЕДИЦИНСКИЙ КОЛЛЕДЖ "</t>
+    <t>ГАПОУ  "ОРЕНБУРГСКИЙ ОБЛАСТНОЙ МЕДИЦИНСКИЙ КОЛЛЕДЖ "</t>
   </si>
   <si>
     <t>https://vk.com/oomk56</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ "СЕВЕРНАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
+    <t>ГБУЗ "СЕВЕРНАЯ РАЙОННАЯ БОЛЬНИЦА "</t>
   </si>
   <si>
     <t>https://vk.com/sevcrb</t>
   </si>
   <si>
-    <t xml:space="preserve">ГБУЗ  "ОРЕНБУРГСКИЙ ОБЛАСТНОЙ ЦЕНТР ОБЩЕСТВЕННОГО ЗДОРОВЬЯ И МЕДИЦИНСКОЙ ПРОФИЛАКТИКИ "</t>
+    <t>ГБУЗ  "ОРЕНБУРГСКИЙ ОБЛАСТНОЙ ЦЕНТР ОБЩЕСТВЕННОГО ЗДОРОВЬЯ И МЕДИЦИНСКОЙ ПРОФИЛАКТИКИ "</t>
   </si>
   <si>
     <t>https://vk.com/profilaktika56</t>
   </si>
   <si>
-    <t xml:space="preserve">Цель парсинга</t>
+    <t>Цель парсинга</t>
   </si>
   <si>
     <t xml:space="preserve">Анализ выполнения плана публикаций и их вовлеченности </t>
   </si>
   <si>
-    <t xml:space="preserve">Задачи парсинга</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сбор данных по количеству публикаций, лайков, комментариев, репостов, просмотров</t>
+    <t>Задачи парсинга</t>
+  </si>
+  <si>
+    <t>Сбор данных по количеству публикаций, лайков, комментариев, репостов, просмотров</t>
   </si>
   <si>
     <t xml:space="preserve">Исходные данные </t>
   </si>
   <si>
-    <t xml:space="preserve">Официальные страницы подведомственных медицинских организаций в сети "Вконтакте" (ссылки на страницы приведены в таблице)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Формат выходных данных</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сводная таблица Excel  по образцу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кол-во месяцев</t>
+    <t>Официальные страницы подведомственных медицинских организаций в сети "Вконтакте" (ссылки на страницы приведены в таблице)</t>
+  </si>
+  <si>
+    <t>Формат выходных данных</t>
+  </si>
+  <si>
+    <t>Сводная таблица Excel  по образцу</t>
+  </si>
+  <si>
+    <t>Кол-во месяцев</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14.000000"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.000000"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18.000000"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
@@ -514,20 +515,20 @@
   </fills>
   <borders count="3">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -542,34 +543,30 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -582,12 +579,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -603,13 +603,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1045365520" name="Рисунок 1"/>
+        <xdr:cNvPr id="1045365520" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010034F3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect l="8701" t="7528" r="10242" b="6337"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -628,291 +634,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -1115,19 +838,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C69" sqref="A2:C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="56.25">
+    <row r="1" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1135,624 +860,620 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="16.5">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="16.5">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="16.5">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="16.5">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="16.5">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="16.5">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="16.5">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="16.5">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="16.5">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="16.5">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="16.5">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="16.5">
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="16.5">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="16.5">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" ht="16.5">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="16.5">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="16.5">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="16.5">
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" ht="16.5">
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" ht="16.5">
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" ht="16.5">
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" ht="16.5">
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" ht="16.5">
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" ht="16.5">
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" ht="16.5">
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" ht="16.5">
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" ht="16.5">
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" ht="16.5">
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" ht="16.5">
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" ht="16.5">
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" ht="16.5">
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" ht="16.5">
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" ht="16.5">
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" ht="16.5">
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" ht="16.5">
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" ht="16.5">
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" ht="16.5">
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" ht="16.5">
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" ht="16.5">
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" ht="16.5">
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" ht="16.5">
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" ht="16.5">
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" ht="16.5">
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" ht="16.5">
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" ht="16.5">
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" ht="16.5">
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" ht="16.5">
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" ht="16.5">
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" ht="16.5">
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" ht="16.5">
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" ht="16.5">
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" ht="16.5">
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" ht="16.5">
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" ht="16.5">
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" ht="16.5">
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" ht="16.5">
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" ht="16.5">
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" ht="16.5">
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" ht="16.5">
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" ht="16.5">
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" ht="16.5">
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63" ht="16.5">
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64" ht="16.5">
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" ht="14.25">
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" ht="14.25">
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="4" width="64.28125"/>
-    <col customWidth="1" min="2" max="2" style="4" width="107.8515625"/>
-    <col min="3" max="16384" style="4" width="9.140625"/>
+    <col min="1" max="1" width="64.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="107.85546875" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" ht="21.75">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" ht="43.5">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" ht="43.5">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:2" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" ht="21.75">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="84.421875"/>
-    <col customWidth="1" min="2" max="2" width="38.7109375"/>
-    <col customWidth="1" min="3" max="3" width="25.57421875"/>
+    <col min="1" max="1" width="84.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1763,246 +1484,547 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" ht="16.5">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" ht="16.5">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" ht="16.5">
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" ht="16.5">
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" ht="16.5">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" ht="16.5">
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" ht="16.5">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" ht="16.5">
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" ht="16.5">
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" ht="16.5">
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" ht="16.5">
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" ht="16.5">
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" ht="16.5">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" ht="16.5">
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" ht="16.5">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" ht="16.5">
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" ht="16.5">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" ht="16.5">
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" ht="16.5">
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" ht="16.5">
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" ht="16.5">
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" ht="16.5">
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" ht="16.5">
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" ht="16.5">
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" ht="16.5">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" ht="16.5">
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" ht="16.5">
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" ht="16.5">
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" ht="16.5">
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" ht="16.5">
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" ht="16.5">
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" ht="16.5">
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" ht="16.5">
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" ht="16.5">
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" ht="16.5">
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" ht="16.5">
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" ht="16.5">
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" ht="16.5">
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" ht="16.5">
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" ht="16.5">
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" ht="16.5">
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" ht="16.5">
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" ht="16.5">
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" ht="16.5">
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" ht="16.5">
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" ht="16.5">
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" ht="16.5">
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" ht="16.5">
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" ht="16.5">
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" ht="16.5">
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" ht="16.5">
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" ht="16.5">
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" ht="16.5">
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" ht="16.5">
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" ht="16.5">
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" ht="16.5">
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" ht="16.5">
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" ht="16.5">
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" ht="16.5">
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" ht="16.5">
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" ht="16.5">
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" ht="16.5">
-      <c r="C64" s="3"/>
-    </row>
-    <row r="65">
-      <c r="C65" s="3"/>
-    </row>
-    <row r="66">
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67">
-      <c r="C67" s="3"/>
-    </row>
-    <row r="68" ht="14.25">
-      <c r="C68" s="3"/>
-    </row>
-    <row r="69" ht="14.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" ht="14.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" ht="14.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>